--- a/maintenance/中小微企业目录（XX公司）.xlsx
+++ b/maintenance/中小微企业目录（XX公司）.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>

--- a/maintenance/中小微企业目录（XX公司）.xlsx
+++ b/maintenance/中小微企业目录（XX公司）.xlsx
@@ -37,7 +37,7 @@
     <t>材料名称</t>
   </si>
   <si>
-    <t>这两列均需与领取的采购订单中的完全一致</t>
+    <t>这两列必须与领取的采购订单中的完全一致</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>

--- a/maintenance/中小微企业目录（XX公司）.xlsx
+++ b/maintenance/中小微企业目录（XX公司）.xlsx
@@ -29,15 +29,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>材料编码</t>
+    <t>供应商名称</t>
   </si>
   <si>
-    <t>材料名称</t>
+    <t>供应商编码</t>
   </si>
   <si>
-    <t>这两列必须与领取的采购订单中的完全一致</t>
+    <t>供应商名称须为公司全称</t>
+  </si>
+  <si>
+    <t>在我院的供应商编码</t>
   </si>
 </sst>
 </file>
@@ -404,56 +407,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -580,7 +539,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,34 +551,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,20 +663,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1039,33 +986,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.25" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
